--- a/console/Hyper-Converged-IDC/HyperConvergedIDC-CCS-控制台翻译内容--报警--2月13日补充.xlsx
+++ b/console/Hyper-Converged-IDC/HyperConvergedIDC-CCS-控制台翻译内容--报警--2月13日补充.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文件\工作-中译语通\2018年\12月\2019年\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文件\工作-中译语通\2018年\12月\2019年\2\京东云反馈-刘晓丽0218\确认后-最终版\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="1.4-报警" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="174">
   <si>
     <t>Overview Page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Alarm Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Resource Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Alarm Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>All</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,14 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Operations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alarm History</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Alarm Management</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,18 +161,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Setting of the same rules is supported by each switch &amp; port number and only independent alarm is supported only, excluding the sum.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Back</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Next Step</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cancel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,14 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mean Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The threshold supports the number only and must be greater than 0, accurate to two decimal places</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Trigger the alarm successively for N times</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,14 +214,6 @@
   </si>
   <si>
     <t>Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contact Group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1694,30 +1654,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Note: To add and modify contacts and contact groups, please operate in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
+    <t>Modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Setting of the same </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Account Management-Contact Management</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>rule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is supported by each switch &amp; port number and only independent alarm is supported only, excluding the sum.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>The threshold must be numeric and larger than 0, and the precision contains up to two digits after the decimal point</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contact Groups</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Note: Add and modify contacts and contact groups in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Contact Management</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Occured At</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1768,9 +1783,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1801,7 +1832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1813,6 +1844,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1835,277 +1875,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>184151</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>577242</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>21988</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3143251" y="2032000"/>
-          <a:ext cx="1053491" cy="815738"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>29478</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>649607</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>44264</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2698750" y="207278"/>
-          <a:ext cx="7513957" cy="1100636"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>88564</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152105</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3130550" y="3048000"/>
-          <a:ext cx="5860714" cy="1434805"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>160760</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>370150</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>75895</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6860010" y="4914900"/>
-          <a:ext cx="5492590" cy="1263345"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>240408</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>11370</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>211576</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6939658" y="7123370"/>
-          <a:ext cx="5914768" cy="2255580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>155836</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>55962</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>173974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6855086" y="9798050"/>
-          <a:ext cx="5843726" cy="3202924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>218409</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>221768</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6917659" y="13976350"/>
-          <a:ext cx="4626159" cy="2228850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2151,7 +1920,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2186,7 +1955,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2373,1149 +2142,1153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
+    <col min="2" max="2" width="18.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="66.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="48.875" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3" t="s">
+      <c r="D17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="F22" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="3" t="s">
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="F58" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="3" t="s">
+    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="3" t="s">
+      <c r="D59" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="3" t="s">
+      <c r="F60" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="3" t="s">
+      <c r="F61" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="3" t="s">
+      <c r="F62" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="3" t="s">
+      <c r="F63" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F64" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F60" s="3" t="s">
+    <row r="71" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F61" s="3" t="s">
+    <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F62" s="3" t="s">
+    <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F63" s="3" t="s">
+    <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F64" s="3" t="s">
+    <row r="76" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F65" s="3" t="s">
+    <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F66" s="3" t="s">
+    <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F67" s="3" t="s">
+    <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F68" s="3" t="s">
+    <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F80" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="3" t="s">
+    <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F82" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="3" t="s">
+    <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F83" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="3" t="s">
+    <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F84" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="3" t="s">
+    <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F85" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="3" t="s">
+    <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F86" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="3" t="s">
+    <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F87" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="3" t="s">
+    <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F88" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="3" t="s">
+    <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F89" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5" t="s">
+    <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="F90" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="3" t="s">
+    </row>
+    <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F91" s="4" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3545,6 +3318,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>